--- a/biology/Médecine/Enterobacteriaceae/Enterobacteriaceae.xlsx
+++ b/biology/Médecine/Enterobacteriaceae/Enterobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enterobacteriaceae sont une famille de bacilles Gram négatifs de l'ordre des Enterobacterales. Leur nom provient de Enterobacter qui est l'un des genres, mais exceptionnellement pas le genre type, de cette famille : le genre type des Enterobacteriaceae est Escherichia. C'est de loin la plus grande famille de l'ordre auquel elle appartient.
-« Entérobactéries » est un terme imprécis sur le plan taxonomique mais largement utilisé pour désigner des bactéries abondantes dans le tube digestif des Mammifères et dans l'environnement, dotées de certaines caractéristiques biologiques communes. Avant l'ère de la phylogénétique moléculaire, lorsque les familles bactériennes n'étaient définies que par des critères phénotypiques, il pouvait désigner la famille des Enterobacteriaceae. Depuis la refonte de l'ordre des Enterobacterales réalisée en 2016 par Adeolu et al. sur des critères génomiques[1], le périmètre des Enterobacteriaceae a été réduit et ces deux termes ne sont plus synonymes.
+« Entérobactéries » est un terme imprécis sur le plan taxonomique mais largement utilisé pour désigner des bactéries abondantes dans le tube digestif des Mammifères et dans l'environnement, dotées de certaines caractéristiques biologiques communes. Avant l'ère de la phylogénétique moléculaire, lorsque les familles bactériennes n'étaient définies que par des critères phénotypiques, il pouvait désigner la famille des Enterobacteriaceae. Depuis la refonte de l'ordre des Enterobacterales réalisée en 2016 par Adeolu et al. sur des critères génomiques, le périmètre des Enterobacteriaceae a été réduit et ces deux termes ne sont plus synonymes.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genres validement publiés
-Selon la LPSN  (24 octobre 2022)[2] :
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (24 octobre 2022) :
 Buttiauxella Ferragut et al. 1982
 Cedecea Grimont et al. 1981
 Citrobacter Werkman &amp; Gillen 1932
@@ -553,15 +570,85 @@
 Tenebrionicola Lee et al. 2022
 Trabulsiella McWhorter et al. 1992
 Yokenella Kosako et al. 1985
-Genres reclassés (synonymes)
-Selon la LPSN  (6 novembre 2022)[3] les genres suivants ont été reclassés au sein de la famille des Enterobacteriaceae :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres reclassés (synonymes)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (6 novembre 2022) les genres suivants ont été reclassés au sein de la famille des Enterobacteriaceae :
 Calymmatobacterium Aragão &amp; Vianna 1913 : reclassé en Klebsiella
 Koserella Hickman-Brenner et al. 1985 : reclassé en Yokenella
 Levinea Young et al. 1971 : reclassé en Citrobacter
 Metakosakonia Alnajar &amp; Gupta 2017 : reclassé en Phytobacter
 De plus, le genre Entomohabitans Lee et al. 2022 (fam. Enterobacteriaceae) a été reclassé en Erwinia (fam. Erwiniaceae).
-Genres en attente de publication valide
-Selon la LPSN  (6 novembre 2022)[3] (Ca. signifie Candidatus) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (6 novembre 2022) (Ca. signifie Candidatus) :
 « Aranicola » Schabereiter-Gurtner et al. 2001
 « Atlantibacter » Hata et al. 2016
 « Averyella » Johnson et al. 2005
